--- a/Output/MZ4/POWAI/output.xlsx
+++ b/Output/MZ4/POWAI/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
   <si>
     <t>[19.1117237, 72.908894]</t>
   </si>
@@ -62,6 +62,9 @@
 20C-30490 (Validity: 16/05/2021)
 21-30487 (Validity: 16/05/2021)
 21B-30489 (Validity: 16/05/2021)</t>
+  </si>
+  <si>
+    <t>SATGURU MEDICAL &amp; GENERAL STORES - 8879007750</t>
   </si>
   <si>
     <t>~MUMBAI-SHOP NO.10,CYPRESS BLDG,,HIRANANDANI GARDEN,PAWAI</t>
@@ -180,6 +183,9 @@
     <t>400 076-Unit No. 702, 7th Floor, A- Wing, Supreme Business Park,Supreme City, Powai, Mumbai</t>
   </si>
   <si>
+    <t>[19.1091086, 72.8937795]</t>
+  </si>
+  <si>
     <t>[19.1253998, 72.9192521]</t>
   </si>
   <si>
@@ -226,7 +232,7 @@
     <t>poonam nandkumar kanchan, DPH, [79215-14/08/2007]</t>
   </si>
   <si>
-    <t>MUMBAI-SHOP NO.3, CYPRESS, HIRANANDANI GARDEN,,POWAI</t>
+    <t>[19.0643148, 72.9202032]</t>
   </si>
   <si>
     <t>amrut shashikant samnerkar, BPH,DPH, [94996-15/01/2015]</t>
@@ -350,6 +356,9 @@
 20-Z-5/76/1416 (Validity: 14/11/2018)
 20C-Z-5/76/1396 (Validity: 14/11/2018)
 21-Z-5/76/1414 (Validity: 14/11/2018)</t>
+  </si>
+  <si>
+    <t>[19.1247706, 72.8894688]</t>
   </si>
   <si>
     <t>AMBAJI MEDICAL, SURGICAL ,AYURVEDIC - 9172033000</t>
@@ -416,9 +425,6 @@
 21-129070 (Validity: 17/09/2020)</t>
   </si>
   <si>
-    <t>[19.1242584, 72.9156445]</t>
-  </si>
-  <si>
     <t>[19.1255977, 72.9194529]</t>
   </si>
   <si>
@@ -443,6 +449,9 @@
     <t>HEALTH CARE HOMOEOPATHIC PHARMACY - 9819257311</t>
   </si>
   <si>
+    <t>[19.179028, 72.959192]</t>
+  </si>
+  <si>
     <t>khan tufail ahmed amanullah, DPH, [101539-12/01/2016]</t>
   </si>
   <si>
@@ -473,9 +482,6 @@
   </si>
   <si>
     <t>PAWAI~MUMBAI-BHASKAR CHAWL, SHOP NO.3,PASPOLI VILLAGE, NITI,</t>
-  </si>
-  <si>
-    <t>[19.1143917, 72.86210249999999]</t>
   </si>
   <si>
     <t>MUMBAI-4024,A-WING,OBEROI GARDEN ESTATE,,CHANDIVALI,ANDHERI(EAST),</t>
@@ -491,9 +497,6 @@
   </si>
   <si>
     <t>SUPREME MEDICAL &amp; GENERAL STORES - 9819110987</t>
-  </si>
-  <si>
-    <t>[19.117227, 72.8395099]</t>
   </si>
   <si>
     <t>K. D. ENTERPRISES - 9821032115</t>
@@ -619,7 +622,9 @@
     <t>MUMBAI-SHOP NO. 50/52/54, BASEMENT ,D WING,,SOLARIS 1,SAKI VIHAR ROAD, ANDHERI (EAST),</t>
   </si>
   <si>
-    <t>[19.1247706, 72.8894688]</t>
+    <t>License: 
+20B-Z-5/76/1369 (Validity: 07/09/2018)
+21B-Z-5/76/1354 (Validity: 07/09/2018)</t>
   </si>
   <si>
     <t>License: 
@@ -628,6 +633,9 @@
 21-183343 (Validity: 04/11/2021)</t>
   </si>
   <si>
+    <t>prithviraj khubchand bhal, DPH, [13349-30/09/2011]</t>
+  </si>
+  <si>
     <t>License: 
 20B-129248 (Validity: 21/09/2020)
 21B-129249 (Validity: 21/09/2020)</t>
@@ -718,9 +726,7 @@
 21B-108391 (Validity: 05/12/2019)</t>
   </si>
   <si>
-    <t>License: 
-20B-Z-5/76/1369 (Validity: 07/09/2018)
-21B-Z-5/76/1354 (Validity: 07/09/2018)</t>
+    <t>MUMBAI-G 81-2/4, DR. PATIL COMPOUND,TUNGA VILL, S. V. ROAD, SAKI-VIHAR ROAD, POWAI, SAKINAKA,</t>
   </si>
   <si>
     <t>License: 
@@ -739,57 +745,6 @@
   </si>
   <si>
     <t>shweta dilip ghag , BPH, [165287-12/10/2015]</t>
-  </si>
-  <si>
-    <t>KRISHNA MEDICO - 8080696954</t>
-  </si>
-  <si>
-    <t>NEW TUNGA MEDICAL &amp; GENERAL STORE - 9022315015</t>
-  </si>
-  <si>
-    <t>shri.biswajit chatterjee, BSC, [C-P-23/02/2010]</t>
-  </si>
-  <si>
-    <t>rahul shivaji maske, DPH, [161908-20/10/2014]</t>
-  </si>
-  <si>
-    <t>PRITI MEDICAL &amp; GENERAL STORE - 9867934280</t>
-  </si>
-  <si>
-    <t>License: 
-20-Z-5/76/1061 (Validity: 09/08/2020)
-20C-Z-5/76/1040 (Validity: 09/08/2020)
-21-Z-5/76/1059 (Validity: 09/08/2020)</t>
-  </si>
-  <si>
-    <t>[19.139499, 72.92223899999999]</t>
-  </si>
-  <si>
-    <t>License: 
-20-20-Z-5/76/755 (Validity: 28/08/2017)
-20C-20C-Z-5/76/762 (Validity: 28/08/2017)
-21-21-Z-5/76/753 (Validity: 28/08/2017)</t>
-  </si>
-  <si>
-    <t>MUMBAI-SHOP NO.12/004,ABHILASHA CHS,LTD MHADA , CHANDIVALI, SAKINAKA,</t>
-  </si>
-  <si>
-    <t>AVENUE SURPERMARTS LTD. - 9892536327</t>
-  </si>
-  <si>
-    <t>ms. kavita ramesh hule, BCO, [C-P-11/08/2005]</t>
-  </si>
-  <si>
-    <t>POWAI~MUMBAI-SHOP NO.4, FIJI CHS LTD,TIRANDAZ VILLA. 1.1.T MAIN GAT</t>
-  </si>
-  <si>
-    <t>ketan ashokkumar shah, BPH, [49601-31/08/2012]</t>
-  </si>
-  <si>
-    <t>abhishek keskar, MSC, [C-P-]</t>
-  </si>
-  <si>
-    <t>~MUMBAI-SHOP NO.4, AASHIRWAD CHAITANYA,NAGAR, OPP I.I.T. POWAI</t>
   </si>
   <si>
     <t>License: 
@@ -801,6 +756,57 @@
 21B-79587 (Validity: 16/08/2018)</t>
   </si>
   <si>
+    <t>NEW TUNGA MEDICAL &amp; GENERAL STORE - 9022315015</t>
+  </si>
+  <si>
+    <t>shri.biswajit chatterjee, BSC, [C-P-23/02/2010]</t>
+  </si>
+  <si>
+    <t>rahul shivaji maske, DPH, [161908-20/10/2014]</t>
+  </si>
+  <si>
+    <t>PRITI MEDICAL &amp; GENERAL STORE - 9867934280</t>
+  </si>
+  <si>
+    <t>License: 
+20-Z-5/76/1061 (Validity: 09/08/2020)
+20C-Z-5/76/1040 (Validity: 09/08/2020)
+21-Z-5/76/1059 (Validity: 09/08/2020)</t>
+  </si>
+  <si>
+    <t>[19.139499, 72.92223899999999]</t>
+  </si>
+  <si>
+    <t>License: 
+20-20-Z-5/76/755 (Validity: 28/08/2017)
+20C-20C-Z-5/76/762 (Validity: 28/08/2017)
+21-21-Z-5/76/753 (Validity: 28/08/2017)</t>
+  </si>
+  <si>
+    <t>MUMBAI-SHOP NO.12/004,ABHILASHA CHS,LTD MHADA , CHANDIVALI, SAKINAKA,</t>
+  </si>
+  <si>
+    <t>AVENUE SURPERMARTS LTD. - 9892536327</t>
+  </si>
+  <si>
+    <t>ms. kavita ramesh hule, BCO, [C-P-11/08/2005]</t>
+  </si>
+  <si>
+    <t>POWAI~MUMBAI-SHOP NO.4, FIJI CHS LTD,TIRANDAZ VILLA. 1.1.T MAIN GAT</t>
+  </si>
+  <si>
+    <t>ketan ashokkumar shah, BPH, [49601-31/08/2012]</t>
+  </si>
+  <si>
+    <t>abhishek keskar, MSC, [C-P-]</t>
+  </si>
+  <si>
+    <t>~MUMBAI-SHOP NO.4, AASHIRWAD CHAITANYA,NAGAR, OPP I.I.T. POWAI</t>
+  </si>
+  <si>
+    <t>KRISHNA MEDICO - 8080696954</t>
+  </si>
+  <si>
     <t>anand ramesh yadav, DPH, [104677-01/02/2010]</t>
   </si>
   <si>
@@ -903,9 +909,6 @@
   </si>
   <si>
     <t>AIKON ENTERPRISES - 9821459595</t>
-  </si>
-  <si>
-    <t>DR.L. H. HIRANANDANI HOSPITAL - 9820828235</t>
   </si>
   <si>
     <t>MUMBAI-SHOP NO 21 (CEN-117/7) MILIND NAGAR NO 2 NEAR BUDDHA VIHAR,J V LINK ROAD POWAI</t>
@@ -938,13 +941,7 @@
 21B-92561 (Validity: 09/03/2019)</t>
   </si>
   <si>
-    <t>ankush dhondiram shinde, DPH, [45059-25/01/2017]</t>
-  </si>
-  <si>
     <t>RWHX - 7</t>
-  </si>
-  <si>
-    <t>[19.1232273, 72.87143449999999]</t>
   </si>
   <si>
     <t>[19.114079, 72.8993179]</t>
@@ -1022,9 +1019,6 @@
   </si>
   <si>
     <t>MODERN MEDICAL - 9833728311</t>
-  </si>
-  <si>
-    <t>SANOFI INDIA LTD. - 9821264242</t>
   </si>
   <si>
     <t>[19.1232872, 72.89288429999999]</t>
@@ -1112,6 +1106,9 @@
     <t>jitesh dagadu rathod, DPH, [193951-17/11/2016]</t>
   </si>
   <si>
+    <t>[19.095233, 72.89252]</t>
+  </si>
+  <si>
     <t>NEW MAMAJIS MEDICAL &amp; GENERAL STORES - 8655451428</t>
   </si>
   <si>
@@ -1193,9 +1190,6 @@
     <t>sanjay babulal purohit, DPH, [151010-17/06/2016]</t>
   </si>
   <si>
-    <t>[19.144327, 72.9380112]</t>
-  </si>
-  <si>
     <t>GARDEN, POWAI,~MUMBAI-C.T.S. NO. 25 PART, BASEMENT,,HILL SIDE AVENUE, HIRANANDANI</t>
   </si>
   <si>
@@ -1240,7 +1234,7 @@
     <t>Mumbai-301, Bhavani Industrial Estate,Jain Mandir Road, Opp State Bank of Hyderabad, IIT Maingate</t>
   </si>
   <si>
-    <t>MUMBAI-G 81-2/4, DR. PATIL COMPOUND,TUNGA VILL, S. V. ROAD, SAKI-VIHAR ROAD, POWAI, SAKINAKA,</t>
+    <t>DR.L. H. HIRANANDANI HOSPITAL - 9820828235</t>
   </si>
   <si>
     <t>POWAI-SHOP NO 3 TULSI KUNG,M ASHARM RD I I T MARKET</t>
@@ -1253,6 +1247,9 @@
   </si>
   <si>
     <t>sunil kumar kishan lal gupta, DPH, [96407-01/12/2014]</t>
+  </si>
+  <si>
+    <t>SANOFI INDIA LTD. - 9819719274</t>
   </si>
   <si>
     <t>License: 
@@ -1280,12 +1277,6 @@
     <t>SUNCITY HSG. COMPLEX, POWAI,~M-SHOP NO. 9, GR. FLOOR,,B WING, MERCURY BUILDING,</t>
   </si>
   <si>
-    <t>SATGURU MEDICAL &amp; GENERAL STORES - 8108904074</t>
-  </si>
-  <si>
-    <t>[19.1453651, 72.9278444]</t>
-  </si>
-  <si>
     <t>MUMBAI-SHOP NO-6 BEHIND VITRAM GLASS,SURYA NAGAR, VIKHROLI (W),</t>
   </si>
   <si>
@@ -1298,6 +1289,9 @@
 21-Z-4/84/174 (Validity: 28/10/2017)</t>
   </si>
   <si>
+    <t>[19.0891213, 72.8899466]</t>
+  </si>
+  <si>
     <t>License: 
 20-55651 (Validity: 10/07/2017)
 20C-55653 (Validity: 10/07/2017)
@@ -1393,7 +1387,13 @@
 21B-Z-5/76/944 (Validity: 31/03/2019)</t>
   </si>
   <si>
+    <t>[19.106104, 72.893813]</t>
+  </si>
+  <si>
     <t>OJAS MEDICAL AND GENERAL STORE - 9999999999</t>
+  </si>
+  <si>
+    <t>MUMBAI-SHOP NO.3, CYPRESS, HIRANANDANI GARDEN,,POWAI</t>
   </si>
   <si>
     <t>SEVEN HEALTH CARE - 9870435492</t>
@@ -1447,6 +1447,9 @@
   </si>
   <si>
     <t>ramdev hindu ram, DPH, [188234-01/08/2016]</t>
+  </si>
+  <si>
+    <t>WHX - 4</t>
   </si>
   <si>
     <t>[19.139257, 72.894425]</t>
@@ -1458,6 +1461,9 @@
 21-169566 (Validity: 31/12/2021)</t>
   </si>
   <si>
+    <t>[19.112037, 72.897435]</t>
+  </si>
+  <si>
     <t>atish anand khude, DPH, [162752-04/09/2015]</t>
   </si>
   <si>
@@ -1544,6 +1550,9 @@
     <t>kamlesh bihari singh , DPH, [184688-28/01/2016]</t>
   </si>
   <si>
+    <t>[19.0623767, 72.90520099999999]</t>
+  </si>
+  <si>
     <t>[19.132432, 72.899545]</t>
   </si>
   <si>
@@ -1585,10 +1594,13 @@
     <t>MADHURAM MEDICAL &amp; GENERAL STORES - 9892562846</t>
   </si>
   <si>
-    <t>WHX - 4</t>
+    <t>[19.1244311, 72.9166809]</t>
   </si>
   <si>
     <t>MUMBAI-SHOP NO. 12, GR. FLOOR, MARUTI DARSHAN CHSL,,OPP. IIT MAIN GATE, POWAI,</t>
+  </si>
+  <si>
+    <t>[19.1213026, 72.8690314]</t>
   </si>
   <si>
     <t>License: 
@@ -1977,57 +1989,57 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c s="1" t="s" r="A1">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c s="1" t="s" r="B1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" t="s" r="C1">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c s="1" t="s" r="D1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c s="1" t="s" r="E1">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c s="1" t="s" r="F1">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c s="1" t="s" r="G1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c s="1" t="s" r="H1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c s="1" t="s" r="I1">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c t="s" r="A2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c t="s" r="B2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="D2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c s="2" t="s" r="E2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="F2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I2">
         <v>391</v>
@@ -2035,13 +2047,13 @@
     </row>
     <row r="3" spans="1:9">
       <c t="s" r="A3">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="B3">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C3">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c t="s" r="D3">
         <v>2</v>
@@ -2050,71 +2062,71 @@
         <v>379</v>
       </c>
       <c t="s" r="F3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G3">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I3">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c t="s" r="A4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="B4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C4">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="2" t="s" r="E4">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c t="s" r="F4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I4">
-        <v>128</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c t="s" r="A5">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="B5">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="C5">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c t="s" r="D5">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c s="2" t="s" r="E5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c t="s" r="F5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G5">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I5">
         <v>391</v>
@@ -2122,231 +2134,231 @@
     </row>
     <row r="6" spans="1:9">
       <c t="s" r="A6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="B6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c t="s" r="D6">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c s="2" t="s" r="E6">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c t="s" r="F6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G6">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I6">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c t="s" r="A7">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="B7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="D7">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c s="2" t="s" r="E7">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="F7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G7">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I7">
-        <v>319</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c t="s" r="A8">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c t="s" r="B8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="D8">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c s="2" t="s" r="E8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="F8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I8">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c t="s" r="A9">
+        <v>100</v>
+      </c>
+      <c t="s" r="B9">
+        <v>15</v>
+      </c>
+      <c t="s" r="C9">
+        <v>39</v>
+      </c>
+      <c t="s" r="D9">
+        <v>151</v>
+      </c>
+      <c s="2" t="s" r="E9">
+        <v>351</v>
+      </c>
+      <c t="s" r="F9">
+        <v>55</v>
+      </c>
+      <c t="s" r="G9">
+        <v>234</v>
+      </c>
+      <c t="s" r="H9">
+        <v>68</v>
+      </c>
+      <c t="s" r="I9">
         <v>97</v>
-      </c>
-      <c t="s" r="B9">
-        <v>14</v>
-      </c>
-      <c t="s" r="C9">
-        <v>38</v>
-      </c>
-      <c t="s" r="D9">
-        <v>150</v>
-      </c>
-      <c s="2" t="s" r="E9">
-        <v>353</v>
-      </c>
-      <c t="s" r="F9">
-        <v>53</v>
-      </c>
-      <c t="s" r="G9">
-        <v>232</v>
-      </c>
-      <c t="s" r="H9">
-        <v>66</v>
-      </c>
-      <c t="s" r="I9">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c t="s" r="A10">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="B10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C10">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="D10">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c s="2" t="s" r="E10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="F10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G10">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I10">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c t="s" r="A11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="D11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="2" t="s" r="E11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="F11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I11">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c t="s" r="A12">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="B12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C12">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c t="s" r="D12">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c s="2" t="s" r="E12">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="F12">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G12">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H12">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I12">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c t="s" r="A13">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="B13">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c t="s" r="C13">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="D13">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c s="2" t="s" r="E13">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="F13">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G13">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H13">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I13">
         <v>391</v>
@@ -2354,86 +2366,86 @@
     </row>
     <row r="14" spans="1:9">
       <c t="s" r="A14">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="B14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C14">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="D14">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c s="2" t="s" r="E14">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="F14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G14">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H14">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I14">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c t="s" r="A15">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c t="s" r="B15">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="C15">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="D15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="2" t="s" r="E15">
         <v>10</v>
       </c>
       <c t="s" r="F15">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G15">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H15">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I15">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c t="s" r="A16">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="B16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C16">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c t="s" r="D16">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c s="2" t="s" r="E16">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c t="s" r="F16">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G16">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H16">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I16">
         <v>391</v>
@@ -2441,68 +2453,68 @@
     </row>
     <row r="17" spans="1:9">
       <c t="s" r="A17">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c t="s" r="B17">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="C17">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c t="s" r="D17">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c s="2" t="s" r="E17">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="F17">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G17">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H17">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I17">
-        <v>346</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c t="s" r="A18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="B18">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="C18">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c t="s" r="D18">
         <v>6</v>
       </c>
       <c s="2" t="s" r="E18">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c t="s" r="F18">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G18">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H18">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I18">
-        <v>105</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c t="s" r="A19">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="B19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C19">
         <v>390</v>
@@ -2514,42 +2526,42 @@
         <v>8</v>
       </c>
       <c t="s" r="F19">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G19">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H19">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I19">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c t="s" r="A20">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="B20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C20">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="D20">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c s="2" t="s" r="E20">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="F20">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G20">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H20">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I20">
         <v>391</v>
@@ -2557,202 +2569,202 @@
     </row>
     <row r="21" spans="1:9">
       <c t="s" r="A21">
-        <v>237</v>
+        <v>332</v>
       </c>
       <c t="s" r="B21">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c t="s" r="C21">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="D21">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c s="2" t="s" r="E21">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c t="s" r="F21">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G21">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H21">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I21">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c t="s" r="A22">
-        <v>237</v>
+        <v>332</v>
       </c>
       <c t="s" r="B22">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="C22">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="D22">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c s="2" t="s" r="E22">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="F22">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G22">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H22">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I22">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c t="s" r="A23">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="B23">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="C23">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="D23">
         <v>383</v>
       </c>
       <c s="2" t="s" r="E23">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="F23">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G23">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H23">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I23">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c t="s" r="A24">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="B24">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="C24">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="D24">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c s="2" t="s" r="E24">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="F24">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G24">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H24">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I24">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c t="s" r="A25">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="B25">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="D25">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c s="2" t="s" r="E25">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c t="s" r="F25">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G25">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H25">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I25">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c t="s" r="A26">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="B26">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="C26">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="D26">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="2" t="s" r="E26">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="F26">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G26">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H26">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I26">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c t="s" r="A27">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c t="s" r="B27">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C27">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="D27">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c s="2" t="s" r="E27">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="F27">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G27">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H27">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I27">
         <v>391</v>
@@ -2760,60 +2772,60 @@
     </row>
     <row r="28" spans="1:9">
       <c t="s" r="A28">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="B28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C28">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="D28">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c s="2" t="s" r="E28">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="F28">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G28">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H28">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I28">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c t="s" r="A29">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="B29">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="C29">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="D29">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c s="2" t="s" r="E29">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c t="s" r="F29">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G29">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H29">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I29">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2821,25 +2833,25 @@
         <v>388</v>
       </c>
       <c t="s" r="B30">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="C30">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="D30">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c s="2" t="s" r="E30">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="F30">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G30">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H30">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I30">
         <v>386</v>
@@ -2847,144 +2859,144 @@
     </row>
     <row r="31" spans="1:9">
       <c t="s" r="A31">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="B31">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C31">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="D31">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c s="2" t="s" r="E31">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="F31">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G31">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H31">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I31">
-        <v>246</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c t="s" r="A32">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c t="s" r="B32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C32">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="D32">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c s="2" t="s" r="E32">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="F32">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G32">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H32">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I32">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c t="s" r="A33">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="B33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C33">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="D33">
         <v>393</v>
       </c>
       <c s="2" t="s" r="E33">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c t="s" r="F33">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G33">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H33">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I33">
-        <v>391</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c t="s" r="A34">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="B34">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C34">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="D34">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c s="2" t="s" r="E34">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="F34">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G34">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H34">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I34">
-        <v>391</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c t="s" r="A35">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="B35">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C35">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="D35">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c s="2" t="s" r="E35">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="F35">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G35">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H35">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I35">
         <v>391</v>
@@ -2992,376 +3004,376 @@
     </row>
     <row r="36" spans="1:9">
       <c t="s" r="A36">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c t="s" r="B36">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="C36">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c t="s" r="D36">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c s="2" t="s" r="E36">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="F36">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G36">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H36">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I36">
-        <v>391</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c t="s" r="A37">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c t="s" r="B37">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="C37">
         <v>389</v>
       </c>
       <c t="s" r="D37">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c s="2" t="s" r="E37">
         <v>9</v>
       </c>
       <c t="s" r="F37">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G37">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H37">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I37">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c t="s" r="A38">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c t="s" r="B38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C38">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="D38">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c s="2" t="s" r="E38">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="F38">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G38">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H38">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I38">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c t="s" r="A39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="B39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C39">
         <v>381</v>
       </c>
       <c t="s" r="D39">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c s="2" t="s" r="E39">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="F39">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G39">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H39">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I39">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c t="s" r="A40">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c t="s" r="B40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C40">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c t="s" r="D40">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c s="2" t="s" r="E40">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c t="s" r="F40">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G40">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H40">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I40">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c t="s" r="A41">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c t="s" r="B41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C41">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c t="s" r="D41">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c s="2" t="s" r="E41">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="F41">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G41">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H41">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I41">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c t="s" r="A42">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="B42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C42">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c t="s" r="D42">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c s="2" t="s" r="E42">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="F42">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G42">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H42">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I42">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c t="s" r="A43">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="B43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C43">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="D43">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="2" t="s" r="E43">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="F43">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G43">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H43">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I43">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c t="s" r="A44">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="B44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C44">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="D44">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c s="2" t="s" r="E44">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="F44">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G44">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H44">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I44">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c t="s" r="A45">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="B45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C45">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="D45">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c s="2" t="s" r="E45">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c t="s" r="F45">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G45">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H45">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I45">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c t="s" r="A46">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="B46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C46">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="D46">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c s="2" t="s" r="E46">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c t="s" r="F46">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G46">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H46">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I46">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c t="s" r="A47">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="B47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C47">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="D47">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c s="2" t="s" r="E47">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c t="s" r="F47">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G47">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H47">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I47">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c t="s" r="A48">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="B48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C48">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="D48">
+        <v>367</v>
+      </c>
+      <c s="2" t="s" r="E48">
         <v>369</v>
       </c>
-      <c s="2" t="s" r="E48">
-        <v>371</v>
-      </c>
       <c t="s" r="F48">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G48">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H48">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I48">
         <v>391</v>
@@ -3369,57 +3381,57 @@
     </row>
     <row r="49" spans="1:9">
       <c t="s" r="A49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="B49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C49">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="D49">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="2" t="s" r="E49">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="F49">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G49">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H49">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I49">
-        <v>391</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c t="s" r="A50">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="B50">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C50">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="D50">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="2" t="s" r="E50">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="F50">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G50">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H50">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I50">
         <v>0</v>
@@ -3427,263 +3439,263 @@
     </row>
     <row r="51" spans="1:9">
       <c t="s" r="A51">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="B51">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="C51">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="D51">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c s="2" t="s" r="E51">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="F51">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G51">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H51">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I51">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c t="s" r="A52">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c t="s" r="B52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C52">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="D52">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c s="2" t="s" r="E52">
         <v>7</v>
       </c>
       <c t="s" r="F52">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G52">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H52">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I52">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c t="s" r="A53">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="B53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C53">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="D53">
+        <v>124</v>
+      </c>
+      <c s="2" t="s" r="E53">
+        <v>21</v>
+      </c>
+      <c t="s" r="F53">
+        <v>55</v>
+      </c>
+      <c t="s" r="G53">
+        <v>234</v>
+      </c>
+      <c t="s" r="H53">
+        <v>68</v>
+      </c>
+      <c t="s" r="I53">
         <v>121</v>
-      </c>
-      <c s="2" t="s" r="E53">
-        <v>20</v>
-      </c>
-      <c t="s" r="F53">
-        <v>53</v>
-      </c>
-      <c t="s" r="G53">
-        <v>232</v>
-      </c>
-      <c t="s" r="H53">
-        <v>66</v>
-      </c>
-      <c t="s" r="I53">
-        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c t="s" r="A54">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="B54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C54">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="D54">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c s="2" t="s" r="E54">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="F54">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G54">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H54">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I54">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c t="s" r="A55">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="B55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C55">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="D55">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="2" t="s" r="E55">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="F55">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G55">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H55">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I55">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c t="s" r="A56">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="B56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C56">
         <v>378</v>
       </c>
       <c t="s" r="D56">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c s="2" t="s" r="E56">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="F56">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G56">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H56">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I56">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c t="s" r="A57">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="B57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C57">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c t="s" r="D57">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c s="2" t="s" r="E57">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="F57">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G57">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H57">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I57">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c t="s" r="A58">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="B58">
+        <v>427</v>
+      </c>
+      <c t="s" r="C58">
+        <v>314</v>
+      </c>
+      <c t="s" r="D58">
+        <v>401</v>
+      </c>
+      <c s="2" t="s" r="E58">
+        <v>86</v>
+      </c>
+      <c t="s" r="F58">
+        <v>55</v>
+      </c>
+      <c t="s" r="G58">
+        <v>234</v>
+      </c>
+      <c t="s" r="H58">
+        <v>68</v>
+      </c>
+      <c t="s" r="I58">
         <v>424</v>
-      </c>
-      <c t="s" r="C58">
-        <v>315</v>
-      </c>
-      <c t="s" r="D58">
-        <v>399</v>
-      </c>
-      <c s="2" t="s" r="E58">
-        <v>84</v>
-      </c>
-      <c t="s" r="F58">
-        <v>53</v>
-      </c>
-      <c t="s" r="G58">
-        <v>232</v>
-      </c>
-      <c t="s" r="H58">
-        <v>66</v>
-      </c>
-      <c t="s" r="I58">
-        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c t="s" r="A59">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="B59">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C59">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="D59">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c s="2" t="s" r="E59">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="F59">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G59">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H59">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I59">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3691,54 +3703,54 @@
         <v>3</v>
       </c>
       <c t="s" r="B60">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="C60">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="D60">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c s="2" t="s" r="E60">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="F60">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G60">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H60">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I60">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c t="s" r="A61">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="B61">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C61">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c t="s" r="D61">
         <v>385</v>
       </c>
       <c s="2" t="s" r="E61">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="F61">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G61">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H61">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I61">
         <v>391</v>
@@ -3746,31 +3758,31 @@
     </row>
     <row r="62" spans="1:9">
       <c t="s" r="A62">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="B62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C62">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="D62">
         <v>387</v>
       </c>
       <c s="2" t="s" r="E62">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="F62">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G62">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H62">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I62">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3778,144 +3790,144 @@
         <v>4</v>
       </c>
       <c t="s" r="B63">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C63">
         <v>382</v>
       </c>
       <c t="s" r="D63">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c s="2" t="s" r="E63">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="F63">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G63">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H63">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I63">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c t="s" r="A64">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="B64">
+        <v>15</v>
+      </c>
+      <c t="s" r="C64">
+        <v>306</v>
+      </c>
+      <c t="s" r="D64">
+        <v>38</v>
+      </c>
+      <c s="2" t="s" r="E64">
+        <v>162</v>
+      </c>
+      <c t="s" r="F64">
+        <v>55</v>
+      </c>
+      <c t="s" r="G64">
+        <v>234</v>
+      </c>
+      <c t="s" r="H64">
+        <v>68</v>
+      </c>
+      <c t="s" r="I64">
         <v>14</v>
-      </c>
-      <c t="s" r="C64">
-        <v>307</v>
-      </c>
-      <c t="s" r="D64">
-        <v>37</v>
-      </c>
-      <c s="2" t="s" r="E64">
-        <v>161</v>
-      </c>
-      <c t="s" r="F64">
-        <v>53</v>
-      </c>
-      <c t="s" r="G64">
-        <v>232</v>
-      </c>
-      <c t="s" r="H64">
-        <v>66</v>
-      </c>
-      <c t="s" r="I64">
-        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c t="s" r="A65">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c t="s" r="B65">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C65">
         <v>384</v>
       </c>
       <c t="s" r="D65">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c s="2" t="s" r="E65">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="F65">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G65">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H65">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I65">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c t="s" r="A66">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="B66">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="D66">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c s="2" t="s" r="E66">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="F66">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G66">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H66">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I66">
-        <v>123</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c t="s" r="A67">
-        <v>345</v>
+        <v>11</v>
       </c>
       <c t="s" r="B67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C67">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="D67">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c s="2" t="s" r="E67">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="F67">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G67">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H67">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I67">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3923,170 +3935,170 @@
         <v>377</v>
       </c>
       <c t="s" r="B68">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C68">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="D68">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c s="2" t="s" r="E68">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c t="s" r="F68">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G68">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H68">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I68">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c t="s" r="A69">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c t="s" r="B69">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C69">
         <v>1</v>
       </c>
       <c t="s" r="D69">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c s="2" t="s" r="E69">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="F69">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G69">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H69">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I69">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c t="s" r="A70">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="B70">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C70">
         <v>392</v>
       </c>
       <c t="s" r="D70">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c s="2" t="s" r="E70">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="F70">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G70">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H70">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I70">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c t="s" r="A71">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c t="s" r="B71">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C71">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="D71">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c s="2" t="s" r="E71">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="F71">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G71">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H71">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I71">
-        <v>391</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c t="s" r="A72">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="B72">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C72">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="D72">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c s="2" t="s" r="E72">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="F72">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G72">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H72">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I72">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c t="s" r="A73">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="B73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C73">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="D73">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c s="2" t="s" r="E73">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="F73">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G73">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H73">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I73">
         <v>380</v>
@@ -4094,86 +4106,86 @@
     </row>
     <row r="74" spans="1:9">
       <c t="s" r="A74">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="B74">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C74">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="D74">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c s="2" t="s" r="E74">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="F74">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G74">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H74">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I74">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c t="s" r="A75">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="B75">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C75">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c t="s" r="D75">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="2" t="s" r="E75">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c t="s" r="F75">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G75">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H75">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I75">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c t="s" r="A76">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="B76">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C76">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="D76">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c s="2" t="s" r="E76">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="F76">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G76">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H76">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I76">
         <v>391</v>
@@ -4181,28 +4193,28 @@
     </row>
     <row r="77" spans="1:9">
       <c t="s" r="A77">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="B77">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C77">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="D77">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="2" t="s" r="E77">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c t="s" r="F77">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G77">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H77">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I77">
         <v>391</v>
@@ -4210,57 +4222,57 @@
     </row>
     <row r="78" spans="1:9">
       <c t="s" r="A78">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="B78">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C78">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c t="s" r="D78">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c s="2" t="s" r="E78">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="F78">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G78">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H78">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I78">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c t="s" r="A79">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c t="s" r="B79">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C79">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c t="s" r="D79">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c s="2" t="s" r="E79">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="F79">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G79">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H79">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I79">
         <v>391</v>
@@ -4268,173 +4280,173 @@
     </row>
     <row r="80" spans="1:9">
       <c t="s" r="A80">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="B80">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C80">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="D80">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c s="2" t="s" r="E80">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="F80">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G80">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H80">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I80">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c t="s" r="A81">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="B81">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C81">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="D81">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c s="2" t="s" r="E81">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c t="s" r="F81">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G81">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H81">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I81">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c t="s" r="A82">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="B82">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C82">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c t="s" r="D82">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c s="2" t="s" r="E82">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="F82">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G82">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H82">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I82">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c t="s" r="A83">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="B83">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="C83">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c t="s" r="D83">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c s="2" t="s" r="E83">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="F83">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G83">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H83">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I83">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c t="s" r="A84">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="B84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C84">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="D84">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c s="2" t="s" r="E84">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="F84">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G84">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H84">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I84">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c t="s" r="A85">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="B85">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C85">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="D85">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c s="2" t="s" r="E85">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="F85">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G85">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H85">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I85">
         <v>391</v>
@@ -4442,176 +4454,176 @@
     </row>
     <row r="86" spans="1:9">
       <c t="s" r="A86">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="B86">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C86">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="D86">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c s="2" t="s" r="E86">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="F86">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G86">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H86">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I86">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c t="s" r="A87">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="B87">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C87">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="D87">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c s="2" t="s" r="E87">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="F87">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G87">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H87">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I87">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c t="s" r="A88">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="B88">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c t="s" r="C88">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="D88">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="2" t="s" r="E88">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="F88">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G88">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H88">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I88">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c t="s" r="A89">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="B89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="C89">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c t="s" r="D89">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c s="2" t="s" r="E89">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="F89">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G89">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H89">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I89">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c t="s" r="A90">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="B90">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="C90">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="D90">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c s="2" t="s" r="E90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="F90">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G90">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H90">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I90">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c t="s" r="A91">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="B91">
         <v>245</v>
       </c>
       <c t="s" r="C91">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="D91">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c s="2" t="s" r="E91">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="F91">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="G91">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="H91">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="I91">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
